--- a/dage.xlsx
+++ b/dage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesper\Documents\GitHub\djangochartjs\Django-Data-Visualization-with-Chart.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8114A844-E227-45CB-BDF3-7E7B74C60571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C335F7-15EE-4E9C-97D7-A2C497C0FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63C96CEA-1A83-4171-A9B9-62543187B3B9}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +471,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -479,6 +482,9 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -487,6 +493,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
@@ -495,6 +504,9 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -503,6 +515,9 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -511,6 +526,9 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -519,6 +537,9 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -527,6 +548,9 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -535,6 +559,9 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -543,6 +570,9 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -551,6 +581,9 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -559,6 +592,9 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
@@ -567,10 +603,16 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
